--- a/Evaluation/eval001/sub0666/Classifcation Report.xlsx
+++ b/Evaluation/eval001/sub0666/Classifcation Report.xlsx
@@ -400,13 +400,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9313725490196079</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9306930693069307</v>
+        <v>0.9405940594059405</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9353233830845772</v>
+        <v>0.935960591133005</v>
       </c>
       <c r="E2" t="n">
         <v>101</v>
@@ -419,13 +419,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9313725490196079</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9405940594059405</v>
+        <v>0.9306930693069307</v>
       </c>
       <c r="D3" t="n">
-        <v>0.935960591133005</v>
+        <v>0.9353233830845772</v>
       </c>
       <c r="E3" t="n">
         <v>101</v>
